--- a/data/trans_bre/P14B23-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14B23-Edad-trans_bre.xlsx
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,29</t>
+          <t>-0,18; 1,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 3,63</t>
+          <t>0,28; 4,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 5,46</t>
+          <t>-1,59; 5,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,39; —</t>
+          <t>-27,36; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-72,18; 639,84</t>
+          <t>-58,5; 907,5</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,89</t>
+          <t>0,69; 3,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 1,89</t>
+          <t>-0,14; 1,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,7</t>
+          <t>0,81; 5,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,12; 1182,03</t>
+          <t>33,21; 1072,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,69; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,03; 1507,54</t>
+          <t>28,49; 2392,91</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,94</t>
+          <t>0,41; 5,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,03</t>
+          <t>0,51; 4,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,54</t>
+          <t>-2,41; 2,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,15; 238,43</t>
+          <t>5,94; 210,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,69; 390,34</t>
+          <t>15,25; 396,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,96; 94,49</t>
+          <t>-42,12; 81,3</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,67</t>
+          <t>2,7; 7,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,18</t>
+          <t>2,29; 7,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 7,69</t>
+          <t>1,58; 7,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>60,15; 473,96</t>
+          <t>60,89; 490,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,18; 333,42</t>
+          <t>55,63; 344,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,8; 431,53</t>
+          <t>28,29; 400,92</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,34; 12,81</t>
+          <t>5,25; 13,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,27; 11,17</t>
+          <t>4,03; 11,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,34</t>
+          <t>3,35; 8,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>88,23; 426,46</t>
+          <t>83,92; 427,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>75,83; 438,35</t>
+          <t>62,3; 424,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,97; 188,2</t>
+          <t>46,72; 208,29</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,61; 15,96</t>
+          <t>6,87; 15,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,1; 14,13</t>
+          <t>6,96; 13,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 8,18</t>
+          <t>-1,2; 8,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>87,64; 821,59</t>
+          <t>113,84; 767,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>311,54; 4123,99</t>
+          <t>270,8; 3941,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,05; 312,9</t>
+          <t>-21,66; 319,95</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,16; 15,82</t>
+          <t>7,25; 16,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,5; 11,77</t>
+          <t>3,77; 12,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,74; 8,71</t>
+          <t>2,83; 8,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>94,83; 813,36</t>
+          <t>94,17; 807,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>60,34; 473,28</t>
+          <t>47,9; 517,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>35,76; 250,51</t>
+          <t>37,43; 241,8</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,48; 6,65</t>
+          <t>4,41; 6,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,79; 5,77</t>
+          <t>3,77; 5,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,89</t>
+          <t>2,03; 4,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>149,19; 317,44</t>
+          <t>149,08; 326,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>164,33; 345,51</t>
+          <t>158,33; 353,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>53,63; 166,43</t>
+          <t>54,83; 154,67</t>
         </is>
       </c>
     </row>
